--- a/crisscross_kit/crisscross/dna_source_plates/cargo_plates/sw_src010_nelson_quimby_bart_edna_maxed.xlsx
+++ b/crisscross_kit/crisscross/dna_source_plates/cargo_plates/sw_src010_nelson_quimby_bart_edna_maxed.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1007">
   <si>
     <t>well</t>
   </si>
@@ -1185,6 +1185,390 @@
     <t>P24</t>
   </si>
   <si>
+    <t>CARGO-antiNelson-h2-position_1</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_2</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_3</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_4</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_5</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_6</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_7</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_8</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_9</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_10</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_11</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_12</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_13</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_14</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_15</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_16</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_17</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_18</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_19</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_20</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_21</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_22</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_23</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_24</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_25</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_26</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_27</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_28</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_29</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_30</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_31</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h2-position_32</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_1</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_2</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_3</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_4</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_5</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_6</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_7</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_8</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_9</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_10</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_11</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_12</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_13</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_14</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_15</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_16</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_17</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_18</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_19</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_20</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_21</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_22</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_23</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_24</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_25</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_26</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_27</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_28</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_29</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_30</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_31</t>
+  </si>
+  <si>
+    <t>CARGO-antiNelson-h5-position_32</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_1</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_2</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_3</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_4</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_5</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_6</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_7</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_8</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_9</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_10</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_11</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_12</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_13</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_14</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_15</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_16</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_17</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_18</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_19</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_20</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_21</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_22</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_23</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_24</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_25</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_26</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_27</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_28</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_29</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_30</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_31</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h2-position_32</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_1</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_2</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_3</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_4</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_5</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_6</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_7</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_8</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_9</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_10</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_11</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_12</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_13</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_14</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_15</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_16</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_17</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_18</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_19</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_20</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_21</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_22</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_23</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_24</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_25</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_26</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_27</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_28</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_29</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_30</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_31</t>
+  </si>
+  <si>
+    <t>CARGO-antiQuimby-h5-position_32</t>
+  </si>
+  <si>
     <t>CARGO-antiBart-h5-position_1</t>
   </si>
   <si>
@@ -1377,6 +1761,390 @@
     <t>CARGO-antiEdna-h5-position_32</t>
   </si>
   <si>
+    <t>GGGCGCCAGGGTGCTGGTTTGCCCCAGCAGGTTCCAGTTTGGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TAGCTGTTTCCTAGCTAACTCACATTAATTGGTTTGCGTATTttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CAGCGGTGCCGGTTTCACGGTCATACCGGGTAATCATGGTCAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AACCAGCTTACGACTGTTGCCCTGCGGCTGGTTACCTGCAGCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CTTTAGTGATGACACATCCTCATAACGGAAGCCATCCCACGCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GAAACAATCGGCAAGAGACGCAGAAACAGCCGCACAGGCGGCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AAGCGCCATTCGGCAAGGCGATTAAGTTGGATAACCTCACCGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TCAACATTAAATGGCGCATCGTAACCGTGCGGAAACCAGGCAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TCGTAAAACTAGCGTTAATATTTTGTTAAAAGCCAGCTTTCAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TATTTTAAATGCCGTTCTAGCTGATAAATTGATGAACGGTAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AGCTGAAAAGGTAGCCTCAGAGCATAAAGCAGAACCCTCATAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CATTTTTGCGGAATTCCATATAACAGTTGAATTTGGGGCGCGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AAACGAGAATGAGAAAGACTTCAAATATCGTTGATAAGAGGTttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CCAAAAGGAATTAGAAGTTTTGCCAGAGGGAAACAGTTCAGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TAAATTGGGCTTGGAAGAAAAATCTACGTTAGATACATAACGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CGAGGCGCAGACCTTCATCAAGAGTAATCTCAGAACGAGTAGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ATGAGGAAGTTTTCTTTGACCCCCAGCGATACTTAGCCGGAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TTCGAGGTGAATGCTTGCAGGGAGTTAAAGAAAGACTTTTTCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CGTAACGATCTAGAGAATAGAAAGGAACAATATCAGCTTGCTttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TATAGCCCGGAACCTCATTTTCAGGGATAGCCTCATAGTTAGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CAGGAGTGTACTTATTCTGAAACATGAAAGGGTTGATATAAGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CCTCAGAACCGCCAGACGATTGGCCTTGATCTTTTGATGATAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TAGCAAGGCCGGCGTTTTCATCGGCATTTTCAGAGCCGCCACttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AGACACCACGGAGGAGGGAAGGTAAATATTCACCATTACCATttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AACAATGAAATAAATAATAACGGAATACCCAAAGAAACGCAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TATTTATCCCAAGCATTAGACGGGAGAATTATAAGAGCAAGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TAGCAAGCAAATAATCAAGATTAGTTGCTAAAACAGCCATATttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CTAATGCAGAACTAATCGGCTGTCTTTCCTTACCGCGCCCAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AAGCCTGTTTAGCGCCAACATGTAATTTAGCAACATGTTCAGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CCTTTTTAACCTAATATATTTTAGTTAATTAATTACTAGAAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ATTAATTACATTCGTCGCTATTAATTAATTTCTGAGAGACTAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CTTGAAAACATAGATGATGAAACAAAACAAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CCTGGCCCTCTCCAACGTCAAAGGGCGACTTGACGGGGAAAGttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CATAAAGTGGTGAGACGGGCAACAGCTGAGAAAGCGAAAGGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TCTGTGGTGGCTCACAATTCCACACAACCGGTCACGCTGCGCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ATCCGCCGGGATCCAGCGCAGTGTCACTCGCCGCTACAGGGCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TTTTCGTCTTCAGCGGGGTCATTGCAGGTATAACGTGCTTTCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TTTCTCCGTTGCTGATTGCCGTTCCGGCAGGAGGCCGATTAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GCTATTACGGTTTACCAGTCCCGGAATTGAATCCTGAGAAGTttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GACCGTAATCTGTTGGGAAGGGCGATCGAAAAGAGTCTGTCCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GGAAGATTGCGTCGGATTCTCCGTGGGACTTCTTTGATTAGTttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AGACAGTCACCCCGGTTGATAATCAGAACTCAAACTATCGGCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GGCAAGGCATAGGTAAAGATTCAAAAGGCCGCCAGCCATTGCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AATATGCAATAGTAGTAGCATTAACATCACATTTTGACGCTCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AGCGGATTGGCTGAATATAATGCTGTAGGCAGATTCACCAGTttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GATAAAAACGGTCTTTACCCTGACTATTTGGCCAACAGAGATttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TAAGAACTGCAACACTATCATAACCCTCATACGTGGCACAGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ACGAAAGAGCCGAACTGACCAACTTTGACCGAACGAACCACCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CGCCCACGCTACGTAATGCCACTACGAATCAGTATTAACACCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TTTGCTAAAACCGATAGTTGCGCCGACAGCAGCAAATGAAAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CCACCCTCACAGACGTTAGTAAATGAATAATATCAAACCCTCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ACAGTTAATTCAGGAGGTTTAGTACCGCACAGTTGAAAGGAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CCGCCGCCAGGGTCAGTGCCTTGAGTAAGGAGCACTAACAACttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GAATCAAGTCCCTCAGAGCCGCCACCAGACATTTGAGGATTTttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CCAAAGACACCATCGATAGCAGCACCGTACAACTCGTATTAAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GAACAAAGTCAATCAATAGAAAATTCATAAAGTTTGAGTAACttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CTTTACAGAGAAGCCCTTTTTAAGAAAACCAGAAGGAGCGGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>AACCTCCCGTTTTTGTTTAACGTCAAAAGATGGCAATTCATCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>CATCCTAATTCCGGTATTCTAAGAACGCTTCTGAATAATGGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GTAGGGCTTATAGATAAGTCCTGAACAATTTGCACGTAAAACttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ATCGCAAGAAAATTCTTACCAGTATAAAGGTTTAACGTCAGAttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>ATATATGTGATATAACTATATGTAAATGTCGGGAGAAACAATttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>TCTGTAAATTAACAATTTCATTTTTTTAATGGAAACAAGTTACAAAATCttAATTACATCTCTCTCCCATCA</t>
+  </si>
+  <si>
+    <t>GGGCGCCAGGGTGCTGGTTTGCCCCAGCAGGTTCCAGTTTGGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TAGCTGTTTCCTAGCTAACTCACATTAATTGGTTTGCGTATTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CAGCGGTGCCGGTTTCACGGTCATACCGGGTAATCATGGTCAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AACCAGCTTACGACTGTTGCCCTGCGGCTGGTTACCTGCAGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CTTTAGTGATGACACATCCTCATAACGGAAGCCATCCCACGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GAAACAATCGGCAAGAGACGCAGAAACAGCCGCACAGGCGGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AAGCGCCATTCGGCAAGGCGATTAAGTTGGATAACCTCACCGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TCAACATTAAATGGCGCATCGTAACCGTGCGGAAACCAGGCAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TCGTAAAACTAGCGTTAATATTTTGTTAAAAGCCAGCTTTCAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TATTTTAAATGCCGTTCTAGCTGATAAATTGATGAACGGTAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AGCTGAAAAGGTAGCCTCAGAGCATAAAGCAGAACCCTCATAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CATTTTTGCGGAATTCCATATAACAGTTGAATTTGGGGCGCGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AAACGAGAATGAGAAAGACTTCAAATATCGTTGATAAGAGGTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCAAAAGGAATTAGAAGTTTTGCCAGAGGGAAACAGTTCAGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TAAATTGGGCTTGGAAGAAAAATCTACGTTAGATACATAACGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CGAGGCGCAGACCTTCATCAAGAGTAATCTCAGAACGAGTAGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATGAGGAAGTTTTCTTTGACCCCCAGCGATACTTAGCCGGAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TTCGAGGTGAATGCTTGCAGGGAGTTAAAGAAAGACTTTTTCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CGTAACGATCTAGAGAATAGAAAGGAACAATATCAGCTTGCTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TATAGCCCGGAACCTCATTTTCAGGGATAGCCTCATAGTTAGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CAGGAGTGTACTTATTCTGAAACATGAAAGGGTTGATATAAGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCTCAGAACCGCCAGACGATTGGCCTTGATCTTTTGATGATAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TAGCAAGGCCGGCGTTTTCATCGGCATTTTCAGAGCCGCCACttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AGACACCACGGAGGAGGGAAGGTAAATATTCACCATTACCATttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AACAATGAAATAAATAATAACGGAATACCCAAAGAAACGCAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TATTTATCCCAAGCATTAGACGGGAGAATTATAAGAGCAAGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TAGCAAGCAAATAATCAAGATTAGTTGCTAAAACAGCCATATttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CTAATGCAGAACTAATCGGCTGTCTTTCCTTACCGCGCCCAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AAGCCTGTTTAGCGCCAACATGTAATTTAGCAACATGTTCAGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCTTTTTAACCTAATATATTTTAGTTAATTAATTACTAGAAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATTAATTACATTCGTCGCTATTAATTAATTTCTGAGAGACTAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CTTGAAAACATAGATGATGAAACAAAACAAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCTGGCCCTCTCCAACGTCAAAGGGCGACTTGACGGGGAAAGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CATAAAGTGGTGAGACGGGCAACAGCTGAGAAAGCGAAAGGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TCTGTGGTGGCTCACAATTCCACACAACCGGTCACGCTGCGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATCCGCCGGGATCCAGCGCAGTGTCACTCGCCGCTACAGGGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TTTTCGTCTTCAGCGGGGTCATTGCAGGTATAACGTGCTTTCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TTTCTCCGTTGCTGATTGCCGTTCCGGCAGGAGGCCGATTAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GCTATTACGGTTTACCAGTCCCGGAATTGAATCCTGAGAAGTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GACCGTAATCTGTTGGGAAGGGCGATCGAAAAGAGTCTGTCCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GGAAGATTGCGTCGGATTCTCCGTGGGACTTCTTTGATTAGTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AGACAGTCACCCCGGTTGATAATCAGAACTCAAACTATCGGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GGCAAGGCATAGGTAAAGATTCAAAAGGCCGCCAGCCATTGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AATATGCAATAGTAGTAGCATTAACATCACATTTTGACGCTCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AGCGGATTGGCTGAATATAATGCTGTAGGCAGATTCACCAGTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GATAAAAACGGTCTTTACCCTGACTATTTGGCCAACAGAGATttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TAAGAACTGCAACACTATCATAACCCTCATACGTGGCACAGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ACGAAAGAGCCGAACTGACCAACTTTGACCGAACGAACCACCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CGCCCACGCTACGTAATGCCACTACGAATCAGTATTAACACCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TTTGCTAAAACCGATAGTTGCGCCGACAGCAGCAAATGAAAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCACCCTCACAGACGTTAGTAAATGAATAATATCAAACCCTCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ACAGTTAATTCAGGAGGTTTAGTACCGCACAGTTGAAAGGAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCGCCGCCAGGGTCAGTGCCTTGAGTAAGGAGCACTAACAACttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GAATCAAGTCCCTCAGAGCCGCCACCAGACATTTGAGGATTTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCAAAGACACCATCGATAGCAGCACCGTACAACTCGTATTAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GAACAAAGTCAATCAATAGAAAATTCATAAAGTTTGAGTAACttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CTTTACAGAGAAGCCCTTTTTAAGAAAACCAGAAGGAGCGGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AACCTCCCGTTTTTGTTTAACGTCAAAAGATGGCAATTCATCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CATCCTAATTCCGGTATTCTAAGAACGCTTCTGAATAATGGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GTAGGGCTTATAGATAAGTCCTGAACAATTTGCACGTAAAACttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATCGCAAGAAAATTCTTACCAGTATAAAGGTTTAACGTCAGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATATATGTGATATAACTATATGTAAATGTCGGGAGAAACAATttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TCTGTAAATTAACAATTTCATTTTTTTAATGGAAACAAGTTACAAAATCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
     <t>CCTGGCCCTCTCCAACGTCAAAGGGCGACTTGACGGGGAAAGttTCTATACCTTCATACCTACAC</t>
   </si>
   <si>
@@ -1569,6 +2337,390 @@
     <t>TCTGTAAATTAACAATTTCATTTTTTTAATGGAAACAAGTTACAAAATCttCCACTATCAACTTTTCACTCA</t>
   </si>
   <si>
+    <t>CARGO Handle For Slat Position 1, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 2, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 3, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 4, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 5, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 6, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 7, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 8, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 9, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 10, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 11, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 12, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 13, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 14, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 15, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 16, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 17, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 18, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 19, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 20, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 21, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 22, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 23, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 24, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 25, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 26, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 27, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 28, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 29, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 30, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 31, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 32, Side h2, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 1, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 2, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 3, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 4, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 5, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 6, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 7, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 8, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 9, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 10, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 11, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 12, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 13, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 14, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 15, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 16, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 17, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 18, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 19, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 20, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 21, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 22, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 23, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 24, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 25, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 26, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 27, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 28, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 29, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 30, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 31, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 32, Side h5, Cargo ID antiNelson</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 1, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 2, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 3, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 4, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 5, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 6, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 7, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 8, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 9, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 10, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 11, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 12, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 13, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 14, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 15, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 16, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 17, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 18, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 19, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 20, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 21, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 22, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 23, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 24, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 25, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 26, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 27, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 28, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 29, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 30, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 31, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 32, Side h2, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 1, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 2, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 3, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 4, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 5, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 6, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 7, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 8, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 9, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 10, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 11, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 12, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 13, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 14, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 15, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 16, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 17, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 18, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 19, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 20, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 21, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 22, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 23, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 24, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 25, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 26, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 27, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 28, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 29, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 30, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 31, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
+    <t>CARGO Handle For Slat Position 32, Side h5, Cargo ID antiQuimby</t>
+  </si>
+  <si>
     <t>Cargo Handle For Slat Position 1, Side h5, Cargo ID antiBart</t>
   </si>
   <si>
@@ -1833,7 +2985,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>sw_src010_nelson_quimby_bart_edna_maxed</t>
+    <t>new_src010</t>
   </si>
   <si>
     <t>A</t>
@@ -1882,6 +3034,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +3060,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1921,6 +3076,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,13 +3113,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2260,9 +3422,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="74.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2287,953 +3449,2489 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D6" t="s">
+        <v>777</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D7" t="s">
+        <v>778</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" t="s">
+        <v>779</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9" t="s">
+        <v>780</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>589</v>
+      </c>
+      <c r="D10" t="s">
+        <v>781</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" t="s">
+        <v>782</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>591</v>
+      </c>
+      <c r="D12" t="s">
+        <v>783</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D14" t="s">
+        <v>785</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D15" t="s">
+        <v>786</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>595</v>
+      </c>
+      <c r="D16" t="s">
+        <v>787</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>596</v>
+      </c>
+      <c r="D17" t="s">
+        <v>788</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" t="s">
+        <v>597</v>
+      </c>
+      <c r="D26" t="s">
+        <v>789</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" t="s">
+        <v>598</v>
+      </c>
+      <c r="D27" t="s">
+        <v>790</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D28" t="s">
+        <v>791</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" t="s">
+        <v>600</v>
+      </c>
+      <c r="D29" t="s">
+        <v>792</v>
+      </c>
+      <c r="E29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" t="s">
+        <v>601</v>
+      </c>
+      <c r="D30" t="s">
+        <v>793</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>410</v>
+      </c>
+      <c r="C31" t="s">
+        <v>602</v>
+      </c>
+      <c r="D31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>411</v>
+      </c>
+      <c r="C32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D32" t="s">
+        <v>795</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C33" t="s">
+        <v>604</v>
+      </c>
+      <c r="D33" t="s">
+        <v>796</v>
+      </c>
+      <c r="E33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C34" t="s">
+        <v>605</v>
+      </c>
+      <c r="D34" t="s">
+        <v>797</v>
+      </c>
+      <c r="E34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C35" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" t="s">
+        <v>798</v>
+      </c>
+      <c r="E35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" t="s">
+        <v>607</v>
+      </c>
+      <c r="D36" t="s">
+        <v>799</v>
+      </c>
+      <c r="E36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" t="s">
+        <v>608</v>
+      </c>
+      <c r="D37" t="s">
+        <v>800</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C38" t="s">
+        <v>609</v>
+      </c>
+      <c r="D38" t="s">
+        <v>801</v>
+      </c>
+      <c r="E38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>418</v>
+      </c>
+      <c r="C39" t="s">
+        <v>610</v>
+      </c>
+      <c r="D39" t="s">
+        <v>802</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" t="s">
+        <v>611</v>
+      </c>
+      <c r="D40" t="s">
+        <v>803</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>420</v>
+      </c>
+      <c r="C41" t="s">
+        <v>612</v>
+      </c>
+      <c r="D41" t="s">
+        <v>804</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" t="s">
+        <v>613</v>
+      </c>
+      <c r="D50" t="s">
+        <v>805</v>
+      </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="s">
+        <v>422</v>
+      </c>
+      <c r="C51" t="s">
+        <v>614</v>
+      </c>
+      <c r="D51" t="s">
+        <v>806</v>
+      </c>
+      <c r="E51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" t="s">
+        <v>423</v>
+      </c>
+      <c r="C52" t="s">
+        <v>615</v>
+      </c>
+      <c r="D52" t="s">
+        <v>807</v>
+      </c>
+      <c r="E52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" t="s">
+        <v>616</v>
+      </c>
+      <c r="D53" t="s">
+        <v>808</v>
+      </c>
+      <c r="E53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>425</v>
+      </c>
+      <c r="C54" t="s">
+        <v>617</v>
+      </c>
+      <c r="D54" t="s">
+        <v>809</v>
+      </c>
+      <c r="E54">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" t="s">
+        <v>426</v>
+      </c>
+      <c r="C55" t="s">
+        <v>618</v>
+      </c>
+      <c r="D55" t="s">
+        <v>810</v>
+      </c>
+      <c r="E55">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" t="s">
+        <v>427</v>
+      </c>
+      <c r="C56" t="s">
+        <v>619</v>
+      </c>
+      <c r="D56" t="s">
+        <v>811</v>
+      </c>
+      <c r="E56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" t="s">
+        <v>428</v>
+      </c>
+      <c r="C57" t="s">
+        <v>620</v>
+      </c>
+      <c r="D57" t="s">
+        <v>812</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" t="s">
+        <v>621</v>
+      </c>
+      <c r="D58" t="s">
+        <v>813</v>
+      </c>
+      <c r="E58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" t="s">
+        <v>622</v>
+      </c>
+      <c r="D59" t="s">
+        <v>814</v>
+      </c>
+      <c r="E59">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="s">
+        <v>431</v>
+      </c>
+      <c r="C60" t="s">
+        <v>623</v>
+      </c>
+      <c r="D60" t="s">
+        <v>815</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" t="s">
+        <v>624</v>
+      </c>
+      <c r="D61" t="s">
+        <v>816</v>
+      </c>
+      <c r="E61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="s">
+        <v>433</v>
+      </c>
+      <c r="C62" t="s">
+        <v>625</v>
+      </c>
+      <c r="D62" t="s">
+        <v>817</v>
+      </c>
+      <c r="E62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" t="s">
+        <v>434</v>
+      </c>
+      <c r="C63" t="s">
+        <v>626</v>
+      </c>
+      <c r="D63" t="s">
+        <v>818</v>
+      </c>
+      <c r="E63">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="s">
+        <v>435</v>
+      </c>
+      <c r="C64" t="s">
+        <v>627</v>
+      </c>
+      <c r="D64" t="s">
+        <v>819</v>
+      </c>
+      <c r="E64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>436</v>
+      </c>
+      <c r="C65" t="s">
+        <v>628</v>
+      </c>
+      <c r="D65" t="s">
+        <v>820</v>
+      </c>
+      <c r="E65">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" t="s">
+        <v>437</v>
+      </c>
+      <c r="C74" t="s">
+        <v>629</v>
+      </c>
+      <c r="D74" t="s">
+        <v>821</v>
+      </c>
+      <c r="E74">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" t="s">
+        <v>438</v>
+      </c>
+      <c r="C75" t="s">
+        <v>630</v>
+      </c>
+      <c r="D75" t="s">
+        <v>822</v>
+      </c>
+      <c r="E75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" t="s">
+        <v>439</v>
+      </c>
+      <c r="C76" t="s">
+        <v>631</v>
+      </c>
+      <c r="D76" t="s">
+        <v>823</v>
+      </c>
+      <c r="E76">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" t="s">
+        <v>440</v>
+      </c>
+      <c r="C77" t="s">
+        <v>632</v>
+      </c>
+      <c r="D77" t="s">
+        <v>824</v>
+      </c>
+      <c r="E77">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" t="s">
+        <v>441</v>
+      </c>
+      <c r="C78" t="s">
+        <v>633</v>
+      </c>
+      <c r="D78" t="s">
+        <v>825</v>
+      </c>
+      <c r="E78">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" t="s">
+        <v>442</v>
+      </c>
+      <c r="C79" t="s">
+        <v>634</v>
+      </c>
+      <c r="D79" t="s">
+        <v>826</v>
+      </c>
+      <c r="E79">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" t="s">
+        <v>443</v>
+      </c>
+      <c r="C80" t="s">
+        <v>635</v>
+      </c>
+      <c r="D80" t="s">
+        <v>827</v>
+      </c>
+      <c r="E80">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" t="s">
+        <v>444</v>
+      </c>
+      <c r="C81" t="s">
+        <v>636</v>
+      </c>
+      <c r="D81" t="s">
+        <v>828</v>
+      </c>
+      <c r="E81">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" t="s">
+        <v>637</v>
+      </c>
+      <c r="D82" t="s">
+        <v>829</v>
+      </c>
+      <c r="E82">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" t="s">
+        <v>446</v>
+      </c>
+      <c r="C83" t="s">
+        <v>638</v>
+      </c>
+      <c r="D83" t="s">
+        <v>830</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" t="s">
+        <v>447</v>
+      </c>
+      <c r="C84" t="s">
+        <v>639</v>
+      </c>
+      <c r="D84" t="s">
+        <v>831</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" t="s">
+        <v>448</v>
+      </c>
+      <c r="C85" t="s">
+        <v>640</v>
+      </c>
+      <c r="D85" t="s">
+        <v>832</v>
+      </c>
+      <c r="E85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" t="s">
+        <v>449</v>
+      </c>
+      <c r="C86" t="s">
+        <v>641</v>
+      </c>
+      <c r="D86" t="s">
+        <v>833</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" t="s">
+        <v>450</v>
+      </c>
+      <c r="C87" t="s">
+        <v>642</v>
+      </c>
+      <c r="D87" t="s">
+        <v>834</v>
+      </c>
+      <c r="E87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" t="s">
+        <v>451</v>
+      </c>
+      <c r="C88" t="s">
+        <v>643</v>
+      </c>
+      <c r="D88" t="s">
+        <v>835</v>
+      </c>
+      <c r="E88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" t="s">
+        <v>452</v>
+      </c>
+      <c r="C89" t="s">
+        <v>644</v>
+      </c>
+      <c r="D89" t="s">
+        <v>836</v>
+      </c>
+      <c r="E89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" t="s">
+        <v>453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>645</v>
+      </c>
+      <c r="D98" t="s">
+        <v>837</v>
+      </c>
+      <c r="E98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" t="s">
+        <v>454</v>
+      </c>
+      <c r="C99" t="s">
+        <v>646</v>
+      </c>
+      <c r="D99" t="s">
+        <v>838</v>
+      </c>
+      <c r="E99">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" t="s">
+        <v>647</v>
+      </c>
+      <c r="D100" t="s">
+        <v>839</v>
+      </c>
+      <c r="E100">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" t="s">
+        <v>648</v>
+      </c>
+      <c r="D101" t="s">
+        <v>840</v>
+      </c>
+      <c r="E101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" t="s">
+        <v>457</v>
+      </c>
+      <c r="C102" t="s">
+        <v>649</v>
+      </c>
+      <c r="D102" t="s">
+        <v>841</v>
+      </c>
+      <c r="E102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" t="s">
+        <v>458</v>
+      </c>
+      <c r="C103" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" t="s">
+        <v>842</v>
+      </c>
+      <c r="E103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" t="s">
+        <v>459</v>
+      </c>
+      <c r="C104" t="s">
+        <v>651</v>
+      </c>
+      <c r="D104" t="s">
+        <v>843</v>
+      </c>
+      <c r="E104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" t="s">
+        <v>460</v>
+      </c>
+      <c r="C105" t="s">
+        <v>652</v>
+      </c>
+      <c r="D105" t="s">
+        <v>844</v>
+      </c>
+      <c r="E105">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" t="s">
+        <v>461</v>
+      </c>
+      <c r="C106" t="s">
+        <v>653</v>
+      </c>
+      <c r="D106" t="s">
+        <v>845</v>
+      </c>
+      <c r="E106">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" t="s">
+        <v>462</v>
+      </c>
+      <c r="C107" t="s">
+        <v>654</v>
+      </c>
+      <c r="D107" t="s">
+        <v>846</v>
+      </c>
+      <c r="E107">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" t="s">
+        <v>463</v>
+      </c>
+      <c r="C108" t="s">
+        <v>655</v>
+      </c>
+      <c r="D108" t="s">
+        <v>847</v>
+      </c>
+      <c r="E108">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" t="s">
+        <v>464</v>
+      </c>
+      <c r="C109" t="s">
+        <v>656</v>
+      </c>
+      <c r="D109" t="s">
+        <v>848</v>
+      </c>
+      <c r="E109">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" t="s">
+        <v>465</v>
+      </c>
+      <c r="C110" t="s">
+        <v>657</v>
+      </c>
+      <c r="D110" t="s">
+        <v>849</v>
+      </c>
+      <c r="E110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" t="s">
+        <v>466</v>
+      </c>
+      <c r="C111" t="s">
+        <v>658</v>
+      </c>
+      <c r="D111" t="s">
+        <v>850</v>
+      </c>
+      <c r="E111">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" t="s">
+        <v>467</v>
+      </c>
+      <c r="C112" t="s">
+        <v>659</v>
+      </c>
+      <c r="D112" t="s">
+        <v>851</v>
+      </c>
+      <c r="E112">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" t="s">
+        <v>468</v>
+      </c>
+      <c r="C113" t="s">
+        <v>660</v>
+      </c>
+      <c r="D113" t="s">
+        <v>852</v>
+      </c>
+      <c r="E113">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" t="s">
+        <v>469</v>
+      </c>
+      <c r="C122" t="s">
+        <v>661</v>
+      </c>
+      <c r="D122" t="s">
+        <v>853</v>
+      </c>
+      <c r="E122">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" t="s">
+        <v>470</v>
+      </c>
+      <c r="C123" t="s">
+        <v>662</v>
+      </c>
+      <c r="D123" t="s">
+        <v>854</v>
+      </c>
+      <c r="E123">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" t="s">
+        <v>471</v>
+      </c>
+      <c r="C124" t="s">
+        <v>663</v>
+      </c>
+      <c r="D124" t="s">
+        <v>855</v>
+      </c>
+      <c r="E124">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" t="s">
+        <v>472</v>
+      </c>
+      <c r="C125" t="s">
+        <v>664</v>
+      </c>
+      <c r="D125" t="s">
+        <v>856</v>
+      </c>
+      <c r="E125">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" t="s">
+        <v>473</v>
+      </c>
+      <c r="C126" t="s">
+        <v>665</v>
+      </c>
+      <c r="D126" t="s">
+        <v>857</v>
+      </c>
+      <c r="E126">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" t="s">
+        <v>474</v>
+      </c>
+      <c r="C127" t="s">
+        <v>666</v>
+      </c>
+      <c r="D127" t="s">
+        <v>858</v>
+      </c>
+      <c r="E127">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" t="s">
+        <v>475</v>
+      </c>
+      <c r="C128" t="s">
+        <v>667</v>
+      </c>
+      <c r="D128" t="s">
+        <v>859</v>
+      </c>
+      <c r="E128">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" t="s">
+        <v>476</v>
+      </c>
+      <c r="C129" t="s">
+        <v>668</v>
+      </c>
+      <c r="D129" t="s">
+        <v>860</v>
+      </c>
+      <c r="E129">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" t="s">
+        <v>477</v>
+      </c>
+      <c r="C130" t="s">
+        <v>669</v>
+      </c>
+      <c r="D130" t="s">
+        <v>861</v>
+      </c>
+      <c r="E130">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" t="s">
+        <v>478</v>
+      </c>
+      <c r="C131" t="s">
+        <v>670</v>
+      </c>
+      <c r="D131" t="s">
+        <v>862</v>
+      </c>
+      <c r="E131">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" t="s">
+        <v>479</v>
+      </c>
+      <c r="C132" t="s">
+        <v>671</v>
+      </c>
+      <c r="D132" t="s">
+        <v>863</v>
+      </c>
+      <c r="E132">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" t="s">
+        <v>480</v>
+      </c>
+      <c r="C133" t="s">
+        <v>672</v>
+      </c>
+      <c r="D133" t="s">
+        <v>864</v>
+      </c>
+      <c r="E133">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" t="s">
+        <v>481</v>
+      </c>
+      <c r="C134" t="s">
+        <v>673</v>
+      </c>
+      <c r="D134" t="s">
+        <v>865</v>
+      </c>
+      <c r="E134">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" t="s">
+        <v>482</v>
+      </c>
+      <c r="C135" t="s">
+        <v>674</v>
+      </c>
+      <c r="D135" t="s">
+        <v>866</v>
+      </c>
+      <c r="E135">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" t="s">
+        <v>483</v>
+      </c>
+      <c r="C136" t="s">
+        <v>675</v>
+      </c>
+      <c r="D136" t="s">
+        <v>867</v>
+      </c>
+      <c r="E136">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" t="s">
+        <v>484</v>
+      </c>
+      <c r="C137" t="s">
+        <v>676</v>
+      </c>
+      <c r="D137" t="s">
+        <v>868</v>
+      </c>
+      <c r="E137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" t="s">
+        <v>485</v>
+      </c>
+      <c r="C146" t="s">
+        <v>677</v>
+      </c>
+      <c r="D146" t="s">
+        <v>869</v>
+      </c>
+      <c r="E146">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" t="s">
+        <v>486</v>
+      </c>
+      <c r="C147" t="s">
+        <v>678</v>
+      </c>
+      <c r="D147" t="s">
+        <v>870</v>
+      </c>
+      <c r="E147">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" t="s">
+        <v>487</v>
+      </c>
+      <c r="C148" t="s">
+        <v>679</v>
+      </c>
+      <c r="D148" t="s">
+        <v>871</v>
+      </c>
+      <c r="E148">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" t="s">
+        <v>488</v>
+      </c>
+      <c r="C149" t="s">
+        <v>680</v>
+      </c>
+      <c r="D149" t="s">
+        <v>872</v>
+      </c>
+      <c r="E149">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" t="s">
+        <v>489</v>
+      </c>
+      <c r="C150" t="s">
+        <v>681</v>
+      </c>
+      <c r="D150" t="s">
+        <v>873</v>
+      </c>
+      <c r="E150">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" t="s">
+        <v>490</v>
+      </c>
+      <c r="C151" t="s">
+        <v>682</v>
+      </c>
+      <c r="D151" t="s">
+        <v>874</v>
+      </c>
+      <c r="E151">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" t="s">
+        <v>491</v>
+      </c>
+      <c r="C152" t="s">
+        <v>683</v>
+      </c>
+      <c r="D152" t="s">
+        <v>875</v>
+      </c>
+      <c r="E152">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" t="s">
+        <v>492</v>
+      </c>
+      <c r="C153" t="s">
+        <v>684</v>
+      </c>
+      <c r="D153" t="s">
+        <v>876</v>
+      </c>
+      <c r="E153">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" t="s">
+        <v>493</v>
+      </c>
+      <c r="C154" t="s">
+        <v>685</v>
+      </c>
+      <c r="D154" t="s">
+        <v>877</v>
+      </c>
+      <c r="E154">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" t="s">
+        <v>494</v>
+      </c>
+      <c r="C155" t="s">
+        <v>686</v>
+      </c>
+      <c r="D155" t="s">
+        <v>878</v>
+      </c>
+      <c r="E155">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" t="s">
+        <v>495</v>
+      </c>
+      <c r="C156" t="s">
+        <v>687</v>
+      </c>
+      <c r="D156" t="s">
+        <v>879</v>
+      </c>
+      <c r="E156">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" t="s">
+        <v>496</v>
+      </c>
+      <c r="C157" t="s">
+        <v>688</v>
+      </c>
+      <c r="D157" t="s">
+        <v>880</v>
+      </c>
+      <c r="E157">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" t="s">
+        <v>497</v>
+      </c>
+      <c r="C158" t="s">
+        <v>689</v>
+      </c>
+      <c r="D158" t="s">
+        <v>881</v>
+      </c>
+      <c r="E158">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" t="s">
+        <v>498</v>
+      </c>
+      <c r="C159" t="s">
+        <v>690</v>
+      </c>
+      <c r="D159" t="s">
+        <v>882</v>
+      </c>
+      <c r="E159">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" t="s">
+        <v>499</v>
+      </c>
+      <c r="C160" t="s">
+        <v>691</v>
+      </c>
+      <c r="D160" t="s">
+        <v>883</v>
+      </c>
+      <c r="E160">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" t="s">
+        <v>500</v>
+      </c>
+      <c r="C161" t="s">
+        <v>692</v>
+      </c>
+      <c r="D161" t="s">
+        <v>884</v>
+      </c>
+      <c r="E161">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" t="s">
+        <v>501</v>
+      </c>
+      <c r="C170" t="s">
+        <v>693</v>
+      </c>
+      <c r="D170" t="s">
+        <v>885</v>
+      </c>
+      <c r="E170">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" t="s">
+        <v>502</v>
+      </c>
+      <c r="C171" t="s">
+        <v>694</v>
+      </c>
+      <c r="D171" t="s">
+        <v>886</v>
+      </c>
+      <c r="E171">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" t="s">
+        <v>503</v>
+      </c>
+      <c r="C172" t="s">
+        <v>695</v>
+      </c>
+      <c r="D172" t="s">
+        <v>887</v>
+      </c>
+      <c r="E172">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" t="s">
+        <v>504</v>
+      </c>
+      <c r="C173" t="s">
+        <v>696</v>
+      </c>
+      <c r="D173" t="s">
+        <v>888</v>
+      </c>
+      <c r="E173">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" t="s">
+        <v>505</v>
+      </c>
+      <c r="C174" t="s">
+        <v>697</v>
+      </c>
+      <c r="D174" t="s">
+        <v>889</v>
+      </c>
+      <c r="E174">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" t="s">
+        <v>698</v>
+      </c>
+      <c r="D175" t="s">
+        <v>890</v>
+      </c>
+      <c r="E175">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" t="s">
+        <v>699</v>
+      </c>
+      <c r="D176" t="s">
+        <v>891</v>
+      </c>
+      <c r="E176">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" t="s">
+        <v>508</v>
+      </c>
+      <c r="C177" t="s">
+        <v>700</v>
+      </c>
+      <c r="D177" t="s">
+        <v>892</v>
+      </c>
+      <c r="E177">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" t="s">
+        <v>509</v>
+      </c>
+      <c r="C178" t="s">
+        <v>701</v>
+      </c>
+      <c r="D178" t="s">
+        <v>893</v>
+      </c>
+      <c r="E178">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" t="s">
+        <v>510</v>
+      </c>
+      <c r="C179" t="s">
+        <v>702</v>
+      </c>
+      <c r="D179" t="s">
+        <v>894</v>
+      </c>
+      <c r="E179">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180" t="s">
+        <v>511</v>
+      </c>
+      <c r="C180" t="s">
+        <v>703</v>
+      </c>
+      <c r="D180" t="s">
+        <v>895</v>
+      </c>
+      <c r="E180">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" t="s">
+        <v>512</v>
+      </c>
+      <c r="C181" t="s">
+        <v>704</v>
+      </c>
+      <c r="D181" t="s">
+        <v>896</v>
+      </c>
+      <c r="E181">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" t="s">
+        <v>513</v>
+      </c>
+      <c r="C182" t="s">
+        <v>705</v>
+      </c>
+      <c r="D182" t="s">
+        <v>897</v>
+      </c>
+      <c r="E182">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" t="s">
+        <v>514</v>
+      </c>
+      <c r="C183" t="s">
+        <v>706</v>
+      </c>
+      <c r="D183" t="s">
+        <v>898</v>
+      </c>
+      <c r="E183">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" t="s">
+        <v>515</v>
+      </c>
+      <c r="C184" t="s">
+        <v>707</v>
+      </c>
+      <c r="D184" t="s">
+        <v>899</v>
+      </c>
+      <c r="E184">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" t="s">
+        <v>516</v>
+      </c>
+      <c r="C185" t="s">
+        <v>708</v>
+      </c>
+      <c r="D185" t="s">
+        <v>900</v>
+      </c>
+      <c r="E185">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -3248,13 +5946,13 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="C194" t="s">
-        <v>453</v>
+        <v>709</v>
       </c>
       <c r="D194" t="s">
-        <v>517</v>
+        <v>901</v>
       </c>
       <c r="E194">
         <v>500</v>
@@ -3265,13 +5963,13 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>518</v>
       </c>
       <c r="C195" t="s">
-        <v>454</v>
+        <v>710</v>
       </c>
       <c r="D195" t="s">
-        <v>518</v>
+        <v>902</v>
       </c>
       <c r="E195">
         <v>500</v>
@@ -3282,13 +5980,13 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>519</v>
       </c>
       <c r="C196" t="s">
-        <v>455</v>
+        <v>711</v>
       </c>
       <c r="D196" t="s">
-        <v>519</v>
+        <v>903</v>
       </c>
       <c r="E196">
         <v>500</v>
@@ -3299,13 +5997,13 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>392</v>
+        <v>520</v>
       </c>
       <c r="C197" t="s">
-        <v>456</v>
+        <v>712</v>
       </c>
       <c r="D197" t="s">
-        <v>520</v>
+        <v>904</v>
       </c>
       <c r="E197">
         <v>500</v>
@@ -3316,13 +6014,13 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>521</v>
       </c>
       <c r="C198" t="s">
-        <v>457</v>
+        <v>713</v>
       </c>
       <c r="D198" t="s">
-        <v>521</v>
+        <v>905</v>
       </c>
       <c r="E198">
         <v>500</v>
@@ -3333,13 +6031,13 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>522</v>
       </c>
       <c r="C199" t="s">
-        <v>458</v>
+        <v>714</v>
       </c>
       <c r="D199" t="s">
-        <v>522</v>
+        <v>906</v>
       </c>
       <c r="E199">
         <v>500</v>
@@ -3350,13 +6048,13 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>523</v>
       </c>
       <c r="C200" t="s">
-        <v>459</v>
+        <v>715</v>
       </c>
       <c r="D200" t="s">
-        <v>523</v>
+        <v>907</v>
       </c>
       <c r="E200">
         <v>500</v>
@@ -3367,13 +6065,13 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>396</v>
+        <v>524</v>
       </c>
       <c r="C201" t="s">
-        <v>460</v>
+        <v>716</v>
       </c>
       <c r="D201" t="s">
-        <v>524</v>
+        <v>908</v>
       </c>
       <c r="E201">
         <v>500</v>
@@ -3384,13 +6082,13 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>397</v>
+        <v>525</v>
       </c>
       <c r="C202" t="s">
-        <v>461</v>
+        <v>717</v>
       </c>
       <c r="D202" t="s">
-        <v>525</v>
+        <v>909</v>
       </c>
       <c r="E202">
         <v>500</v>
@@ -3401,13 +6099,13 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>398</v>
+        <v>526</v>
       </c>
       <c r="C203" t="s">
-        <v>462</v>
+        <v>718</v>
       </c>
       <c r="D203" t="s">
-        <v>526</v>
+        <v>910</v>
       </c>
       <c r="E203">
         <v>500</v>
@@ -3418,13 +6116,13 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>399</v>
+        <v>527</v>
       </c>
       <c r="C204" t="s">
-        <v>463</v>
+        <v>719</v>
       </c>
       <c r="D204" t="s">
-        <v>527</v>
+        <v>911</v>
       </c>
       <c r="E204">
         <v>500</v>
@@ -3435,13 +6133,13 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="C205" t="s">
-        <v>464</v>
+        <v>720</v>
       </c>
       <c r="D205" t="s">
-        <v>528</v>
+        <v>912</v>
       </c>
       <c r="E205">
         <v>500</v>
@@ -3452,13 +6150,13 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>401</v>
+        <v>529</v>
       </c>
       <c r="C206" t="s">
-        <v>465</v>
+        <v>721</v>
       </c>
       <c r="D206" t="s">
-        <v>529</v>
+        <v>913</v>
       </c>
       <c r="E206">
         <v>500</v>
@@ -3469,13 +6167,13 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
       <c r="C207" t="s">
-        <v>466</v>
+        <v>722</v>
       </c>
       <c r="D207" t="s">
-        <v>530</v>
+        <v>914</v>
       </c>
       <c r="E207">
         <v>500</v>
@@ -3486,13 +6184,13 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="C208" t="s">
-        <v>467</v>
+        <v>723</v>
       </c>
       <c r="D208" t="s">
-        <v>531</v>
+        <v>915</v>
       </c>
       <c r="E208">
         <v>500</v>
@@ -3503,13 +6201,13 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
       <c r="C209" t="s">
-        <v>468</v>
+        <v>724</v>
       </c>
       <c r="D209" t="s">
-        <v>532</v>
+        <v>916</v>
       </c>
       <c r="E209">
         <v>500</v>
@@ -3560,13 +6258,13 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>405</v>
+        <v>533</v>
       </c>
       <c r="C218" t="s">
-        <v>469</v>
+        <v>725</v>
       </c>
       <c r="D218" t="s">
-        <v>533</v>
+        <v>917</v>
       </c>
       <c r="E218">
         <v>500</v>
@@ -3577,13 +6275,13 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="C219" t="s">
-        <v>470</v>
+        <v>726</v>
       </c>
       <c r="D219" t="s">
-        <v>534</v>
+        <v>918</v>
       </c>
       <c r="E219">
         <v>500</v>
@@ -3594,13 +6292,13 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>407</v>
+        <v>535</v>
       </c>
       <c r="C220" t="s">
-        <v>471</v>
+        <v>727</v>
       </c>
       <c r="D220" t="s">
-        <v>535</v>
+        <v>919</v>
       </c>
       <c r="E220">
         <v>500</v>
@@ -3611,13 +6309,13 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>408</v>
+        <v>536</v>
       </c>
       <c r="C221" t="s">
-        <v>472</v>
+        <v>728</v>
       </c>
       <c r="D221" t="s">
-        <v>536</v>
+        <v>920</v>
       </c>
       <c r="E221">
         <v>500</v>
@@ -3628,13 +6326,13 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>409</v>
+        <v>537</v>
       </c>
       <c r="C222" t="s">
-        <v>473</v>
+        <v>729</v>
       </c>
       <c r="D222" t="s">
-        <v>537</v>
+        <v>921</v>
       </c>
       <c r="E222">
         <v>500</v>
@@ -3645,13 +6343,13 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>410</v>
+        <v>538</v>
       </c>
       <c r="C223" t="s">
-        <v>474</v>
+        <v>730</v>
       </c>
       <c r="D223" t="s">
-        <v>538</v>
+        <v>922</v>
       </c>
       <c r="E223">
         <v>500</v>
@@ -3662,13 +6360,13 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>411</v>
+        <v>539</v>
       </c>
       <c r="C224" t="s">
-        <v>475</v>
+        <v>731</v>
       </c>
       <c r="D224" t="s">
-        <v>539</v>
+        <v>923</v>
       </c>
       <c r="E224">
         <v>500</v>
@@ -3679,13 +6377,13 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>412</v>
+        <v>540</v>
       </c>
       <c r="C225" t="s">
-        <v>476</v>
+        <v>732</v>
       </c>
       <c r="D225" t="s">
-        <v>540</v>
+        <v>924</v>
       </c>
       <c r="E225">
         <v>500</v>
@@ -3696,13 +6394,13 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>413</v>
+        <v>541</v>
       </c>
       <c r="C226" t="s">
-        <v>477</v>
+        <v>733</v>
       </c>
       <c r="D226" t="s">
-        <v>541</v>
+        <v>925</v>
       </c>
       <c r="E226">
         <v>500</v>
@@ -3713,13 +6411,13 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>414</v>
+        <v>542</v>
       </c>
       <c r="C227" t="s">
-        <v>478</v>
+        <v>734</v>
       </c>
       <c r="D227" t="s">
-        <v>542</v>
+        <v>926</v>
       </c>
       <c r="E227">
         <v>500</v>
@@ -3730,13 +6428,13 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>415</v>
+        <v>543</v>
       </c>
       <c r="C228" t="s">
-        <v>479</v>
+        <v>735</v>
       </c>
       <c r="D228" t="s">
-        <v>543</v>
+        <v>927</v>
       </c>
       <c r="E228">
         <v>500</v>
@@ -3747,13 +6445,13 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>416</v>
+        <v>544</v>
       </c>
       <c r="C229" t="s">
-        <v>480</v>
+        <v>736</v>
       </c>
       <c r="D229" t="s">
-        <v>544</v>
+        <v>928</v>
       </c>
       <c r="E229">
         <v>500</v>
@@ -3764,13 +6462,13 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>417</v>
+        <v>545</v>
       </c>
       <c r="C230" t="s">
-        <v>481</v>
+        <v>737</v>
       </c>
       <c r="D230" t="s">
-        <v>545</v>
+        <v>929</v>
       </c>
       <c r="E230">
         <v>500</v>
@@ -3781,13 +6479,13 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>418</v>
+        <v>546</v>
       </c>
       <c r="C231" t="s">
-        <v>482</v>
+        <v>738</v>
       </c>
       <c r="D231" t="s">
-        <v>546</v>
+        <v>930</v>
       </c>
       <c r="E231">
         <v>500</v>
@@ -3798,13 +6496,13 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>419</v>
+        <v>547</v>
       </c>
       <c r="C232" t="s">
-        <v>483</v>
+        <v>739</v>
       </c>
       <c r="D232" t="s">
-        <v>547</v>
+        <v>931</v>
       </c>
       <c r="E232">
         <v>500</v>
@@ -3815,13 +6513,13 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>420</v>
+        <v>548</v>
       </c>
       <c r="C233" t="s">
-        <v>484</v>
+        <v>740</v>
       </c>
       <c r="D233" t="s">
-        <v>548</v>
+        <v>932</v>
       </c>
       <c r="E233">
         <v>500</v>
@@ -3872,13 +6570,13 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>421</v>
+        <v>549</v>
       </c>
       <c r="C242" t="s">
-        <v>485</v>
+        <v>741</v>
       </c>
       <c r="D242" t="s">
-        <v>549</v>
+        <v>933</v>
       </c>
       <c r="E242">
         <v>500</v>
@@ -3889,13 +6587,13 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>422</v>
+        <v>550</v>
       </c>
       <c r="C243" t="s">
-        <v>486</v>
+        <v>742</v>
       </c>
       <c r="D243" t="s">
-        <v>550</v>
+        <v>934</v>
       </c>
       <c r="E243">
         <v>500</v>
@@ -3906,13 +6604,13 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>423</v>
+        <v>551</v>
       </c>
       <c r="C244" t="s">
-        <v>487</v>
+        <v>743</v>
       </c>
       <c r="D244" t="s">
-        <v>551</v>
+        <v>935</v>
       </c>
       <c r="E244">
         <v>500</v>
@@ -3923,13 +6621,13 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>424</v>
+        <v>552</v>
       </c>
       <c r="C245" t="s">
-        <v>488</v>
+        <v>744</v>
       </c>
       <c r="D245" t="s">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="E245">
         <v>500</v>
@@ -3940,13 +6638,13 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>425</v>
+        <v>553</v>
       </c>
       <c r="C246" t="s">
-        <v>489</v>
+        <v>745</v>
       </c>
       <c r="D246" t="s">
-        <v>553</v>
+        <v>937</v>
       </c>
       <c r="E246">
         <v>500</v>
@@ -3957,13 +6655,13 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>426</v>
+        <v>554</v>
       </c>
       <c r="C247" t="s">
-        <v>490</v>
+        <v>746</v>
       </c>
       <c r="D247" t="s">
-        <v>554</v>
+        <v>938</v>
       </c>
       <c r="E247">
         <v>500</v>
@@ -3974,13 +6672,13 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>427</v>
+        <v>555</v>
       </c>
       <c r="C248" t="s">
-        <v>491</v>
+        <v>747</v>
       </c>
       <c r="D248" t="s">
-        <v>555</v>
+        <v>939</v>
       </c>
       <c r="E248">
         <v>500</v>
@@ -3991,13 +6689,13 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>428</v>
+        <v>556</v>
       </c>
       <c r="C249" t="s">
-        <v>492</v>
+        <v>748</v>
       </c>
       <c r="D249" t="s">
-        <v>556</v>
+        <v>940</v>
       </c>
       <c r="E249">
         <v>500</v>
@@ -4008,13 +6706,13 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>429</v>
+        <v>557</v>
       </c>
       <c r="C250" t="s">
-        <v>493</v>
+        <v>749</v>
       </c>
       <c r="D250" t="s">
-        <v>557</v>
+        <v>941</v>
       </c>
       <c r="E250">
         <v>500</v>
@@ -4025,13 +6723,13 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>430</v>
+        <v>558</v>
       </c>
       <c r="C251" t="s">
-        <v>494</v>
+        <v>750</v>
       </c>
       <c r="D251" t="s">
-        <v>558</v>
+        <v>942</v>
       </c>
       <c r="E251">
         <v>500</v>
@@ -4042,13 +6740,13 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>431</v>
+        <v>559</v>
       </c>
       <c r="C252" t="s">
-        <v>495</v>
+        <v>751</v>
       </c>
       <c r="D252" t="s">
-        <v>559</v>
+        <v>943</v>
       </c>
       <c r="E252">
         <v>500</v>
@@ -4059,13 +6757,13 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>432</v>
+        <v>560</v>
       </c>
       <c r="C253" t="s">
-        <v>496</v>
+        <v>752</v>
       </c>
       <c r="D253" t="s">
-        <v>560</v>
+        <v>944</v>
       </c>
       <c r="E253">
         <v>500</v>
@@ -4076,13 +6774,13 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="C254" t="s">
-        <v>497</v>
+        <v>753</v>
       </c>
       <c r="D254" t="s">
-        <v>561</v>
+        <v>945</v>
       </c>
       <c r="E254">
         <v>500</v>
@@ -4093,13 +6791,13 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="C255" t="s">
-        <v>498</v>
+        <v>754</v>
       </c>
       <c r="D255" t="s">
-        <v>562</v>
+        <v>946</v>
       </c>
       <c r="E255">
         <v>500</v>
@@ -4110,13 +6808,13 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>435</v>
+        <v>563</v>
       </c>
       <c r="C256" t="s">
-        <v>499</v>
+        <v>755</v>
       </c>
       <c r="D256" t="s">
-        <v>563</v>
+        <v>947</v>
       </c>
       <c r="E256">
         <v>500</v>
@@ -4127,13 +6825,13 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>436</v>
+        <v>564</v>
       </c>
       <c r="C257" t="s">
-        <v>500</v>
+        <v>756</v>
       </c>
       <c r="D257" t="s">
-        <v>564</v>
+        <v>948</v>
       </c>
       <c r="E257">
         <v>500</v>
@@ -4184,13 +6882,13 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>437</v>
+        <v>565</v>
       </c>
       <c r="C266" t="s">
-        <v>501</v>
+        <v>757</v>
       </c>
       <c r="D266" t="s">
-        <v>565</v>
+        <v>949</v>
       </c>
       <c r="E266">
         <v>500</v>
@@ -4201,13 +6899,13 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>438</v>
+        <v>566</v>
       </c>
       <c r="C267" t="s">
-        <v>502</v>
+        <v>758</v>
       </c>
       <c r="D267" t="s">
-        <v>566</v>
+        <v>950</v>
       </c>
       <c r="E267">
         <v>500</v>
@@ -4218,13 +6916,13 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>439</v>
+        <v>567</v>
       </c>
       <c r="C268" t="s">
-        <v>503</v>
+        <v>759</v>
       </c>
       <c r="D268" t="s">
-        <v>567</v>
+        <v>951</v>
       </c>
       <c r="E268">
         <v>500</v>
@@ -4235,13 +6933,13 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>440</v>
+        <v>568</v>
       </c>
       <c r="C269" t="s">
-        <v>504</v>
+        <v>760</v>
       </c>
       <c r="D269" t="s">
-        <v>568</v>
+        <v>952</v>
       </c>
       <c r="E269">
         <v>500</v>
@@ -4252,13 +6950,13 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>441</v>
+        <v>569</v>
       </c>
       <c r="C270" t="s">
-        <v>505</v>
+        <v>761</v>
       </c>
       <c r="D270" t="s">
-        <v>569</v>
+        <v>953</v>
       </c>
       <c r="E270">
         <v>500</v>
@@ -4269,13 +6967,13 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>442</v>
+        <v>570</v>
       </c>
       <c r="C271" t="s">
-        <v>506</v>
+        <v>762</v>
       </c>
       <c r="D271" t="s">
-        <v>570</v>
+        <v>954</v>
       </c>
       <c r="E271">
         <v>500</v>
@@ -4286,13 +6984,13 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>443</v>
+        <v>571</v>
       </c>
       <c r="C272" t="s">
-        <v>507</v>
+        <v>763</v>
       </c>
       <c r="D272" t="s">
-        <v>571</v>
+        <v>955</v>
       </c>
       <c r="E272">
         <v>500</v>
@@ -4303,13 +7001,13 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>444</v>
+        <v>572</v>
       </c>
       <c r="C273" t="s">
-        <v>508</v>
+        <v>764</v>
       </c>
       <c r="D273" t="s">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="E273">
         <v>500</v>
@@ -4320,13 +7018,13 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="C274" t="s">
-        <v>509</v>
+        <v>765</v>
       </c>
       <c r="D274" t="s">
-        <v>573</v>
+        <v>957</v>
       </c>
       <c r="E274">
         <v>500</v>
@@ -4337,13 +7035,13 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>446</v>
+        <v>574</v>
       </c>
       <c r="C275" t="s">
-        <v>510</v>
+        <v>766</v>
       </c>
       <c r="D275" t="s">
-        <v>574</v>
+        <v>958</v>
       </c>
       <c r="E275">
         <v>500</v>
@@ -4354,13 +7052,13 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>447</v>
+        <v>575</v>
       </c>
       <c r="C276" t="s">
-        <v>511</v>
+        <v>767</v>
       </c>
       <c r="D276" t="s">
-        <v>575</v>
+        <v>959</v>
       </c>
       <c r="E276">
         <v>500</v>
@@ -4371,13 +7069,13 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>448</v>
+        <v>576</v>
       </c>
       <c r="C277" t="s">
-        <v>512</v>
+        <v>768</v>
       </c>
       <c r="D277" t="s">
-        <v>576</v>
+        <v>960</v>
       </c>
       <c r="E277">
         <v>500</v>
@@ -4388,13 +7086,13 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>449</v>
+        <v>577</v>
       </c>
       <c r="C278" t="s">
-        <v>513</v>
+        <v>769</v>
       </c>
       <c r="D278" t="s">
-        <v>577</v>
+        <v>961</v>
       </c>
       <c r="E278">
         <v>500</v>
@@ -4405,13 +7103,13 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>450</v>
+        <v>578</v>
       </c>
       <c r="C279" t="s">
-        <v>514</v>
+        <v>770</v>
       </c>
       <c r="D279" t="s">
-        <v>578</v>
+        <v>962</v>
       </c>
       <c r="E279">
         <v>500</v>
@@ -4422,13 +7120,13 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>451</v>
+        <v>579</v>
       </c>
       <c r="C280" t="s">
-        <v>515</v>
+        <v>771</v>
       </c>
       <c r="D280" t="s">
-        <v>579</v>
+        <v>963</v>
       </c>
       <c r="E280">
         <v>500</v>
@@ -4439,13 +7137,13 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>452</v>
+        <v>580</v>
       </c>
       <c r="C281" t="s">
-        <v>516</v>
+        <v>772</v>
       </c>
       <c r="D281" t="s">
-        <v>580</v>
+        <v>964</v>
       </c>
       <c r="E281">
         <v>500</v>
@@ -4984,357 +7682,741 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16" width="31.7109375" customWidth="1"/>
+    <col min="1" max="16" width="33.7109375" customWidth="1"/>
     <col min="17" max="24" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>989</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>965</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>966</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>967</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>584</v>
+        <v>968</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>585</v>
+        <v>969</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>586</v>
+        <v>970</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>587</v>
+        <v>971</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>588</v>
+        <v>972</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>589</v>
+        <v>973</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>590</v>
+        <v>974</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>591</v>
+        <v>975</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>592</v>
+        <v>976</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>593</v>
+        <v>977</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>594</v>
+        <v>978</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>595</v>
+        <v>979</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>596</v>
+        <v>980</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>597</v>
+        <v>981</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>598</v>
+        <v>982</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>599</v>
+        <v>983</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>600</v>
+        <v>984</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>601</v>
+        <v>985</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>602</v>
+        <v>986</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>603</v>
+        <v>987</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>604</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>606</v>
+        <v>990</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>607</v>
+        <v>991</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J3" t="s">
+        <v>413</v>
+      </c>
+      <c r="K3" t="s">
+        <v>414</v>
+      </c>
+      <c r="L3" t="s">
+        <v>415</v>
+      </c>
+      <c r="M3" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" t="s">
+        <v>417</v>
+      </c>
+      <c r="O3" t="s">
+        <v>418</v>
+      </c>
+      <c r="P3" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>608</v>
+        <v>992</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>609</v>
+        <v>993</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J5" t="s">
+        <v>445</v>
+      </c>
+      <c r="K5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L5" t="s">
+        <v>447</v>
+      </c>
+      <c r="M5" t="s">
+        <v>448</v>
+      </c>
+      <c r="N5" t="s">
+        <v>449</v>
+      </c>
+      <c r="O5" t="s">
+        <v>450</v>
+      </c>
+      <c r="P5" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="2" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>610</v>
+        <v>994</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>611</v>
+        <v>995</v>
+      </c>
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I7" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N7" t="s">
+        <v>481</v>
+      </c>
+      <c r="O7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="2" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>612</v>
+        <v>996</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>613</v>
+        <v>997</v>
+      </c>
+      <c r="B9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I9" t="s">
+        <v>508</v>
+      </c>
+      <c r="J9" t="s">
+        <v>509</v>
+      </c>
+      <c r="K9" t="s">
+        <v>510</v>
+      </c>
+      <c r="L9" t="s">
+        <v>511</v>
+      </c>
+      <c r="M9" t="s">
+        <v>512</v>
+      </c>
+      <c r="N9" t="s">
+        <v>513</v>
+      </c>
+      <c r="O9" t="s">
+        <v>514</v>
+      </c>
+      <c r="P9" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="2" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>614</v>
+        <v>998</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>390</v>
+        <v>518</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>391</v>
+        <v>519</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>392</v>
+        <v>520</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>393</v>
+        <v>521</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>394</v>
+        <v>522</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>395</v>
+        <v>523</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>396</v>
+        <v>524</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>397</v>
+        <v>525</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>398</v>
+        <v>526</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>399</v>
+        <v>527</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>401</v>
+        <v>529</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>615</v>
+        <v>999</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>533</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>535</v>
       </c>
       <c r="E11" t="s">
-        <v>408</v>
+        <v>536</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>537</v>
       </c>
       <c r="G11" t="s">
-        <v>410</v>
+        <v>538</v>
       </c>
       <c r="H11" t="s">
-        <v>411</v>
+        <v>539</v>
       </c>
       <c r="I11" t="s">
-        <v>412</v>
+        <v>540</v>
       </c>
       <c r="J11" t="s">
-        <v>413</v>
+        <v>541</v>
       </c>
       <c r="K11" t="s">
-        <v>414</v>
+        <v>542</v>
       </c>
       <c r="L11" t="s">
-        <v>415</v>
+        <v>543</v>
       </c>
       <c r="M11" t="s">
-        <v>416</v>
+        <v>544</v>
       </c>
       <c r="N11" t="s">
-        <v>417</v>
+        <v>545</v>
       </c>
       <c r="O11" t="s">
-        <v>418</v>
+        <v>546</v>
       </c>
       <c r="P11" t="s">
-        <v>419</v>
+        <v>547</v>
       </c>
       <c r="Q11" t="s">
-        <v>420</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="2" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>616</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>421</v>
+        <v>549</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>422</v>
+        <v>550</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>423</v>
+        <v>551</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>424</v>
+        <v>552</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>425</v>
+        <v>553</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>426</v>
+        <v>554</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>427</v>
+        <v>555</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>428</v>
+        <v>556</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>429</v>
+        <v>557</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>430</v>
+        <v>558</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>431</v>
+        <v>559</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>432</v>
+        <v>560</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>435</v>
+        <v>563</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>436</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>617</v>
+        <v>1001</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>566</v>
       </c>
       <c r="D13" t="s">
-        <v>439</v>
+        <v>567</v>
       </c>
       <c r="E13" t="s">
-        <v>440</v>
+        <v>568</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>569</v>
       </c>
       <c r="G13" t="s">
-        <v>442</v>
+        <v>570</v>
       </c>
       <c r="H13" t="s">
-        <v>443</v>
+        <v>571</v>
       </c>
       <c r="I13" t="s">
-        <v>444</v>
+        <v>572</v>
       </c>
       <c r="J13" t="s">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="K13" t="s">
-        <v>446</v>
+        <v>574</v>
       </c>
       <c r="L13" t="s">
-        <v>447</v>
+        <v>575</v>
       </c>
       <c r="M13" t="s">
-        <v>448</v>
+        <v>576</v>
       </c>
       <c r="N13" t="s">
-        <v>449</v>
+        <v>577</v>
       </c>
       <c r="O13" t="s">
-        <v>450</v>
+        <v>578</v>
       </c>
       <c r="P13" t="s">
-        <v>451</v>
+        <v>579</v>
       </c>
       <c r="Q13" t="s">
-        <v>452</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="2" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>618</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>619</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="2" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>620</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>621</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -5350,356 +8432,1317 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="24" width="5.7109375" customWidth="1"/>
+    <col min="1" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="24" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>989</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>965</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>966</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>967</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>584</v>
+        <v>968</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>585</v>
+        <v>969</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>586</v>
+        <v>970</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>587</v>
+        <v>971</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>588</v>
+        <v>972</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>589</v>
+        <v>973</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>590</v>
+        <v>974</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>591</v>
+        <v>975</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>592</v>
+        <v>976</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>593</v>
+        <v>977</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>594</v>
+        <v>978</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>595</v>
+        <v>979</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>596</v>
+        <v>980</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>597</v>
+        <v>981</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>598</v>
+        <v>982</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>599</v>
+        <v>983</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>600</v>
+        <v>984</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>601</v>
+        <v>985</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>602</v>
+        <v>986</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>603</v>
+        <v>987</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>604</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>606</v>
+        <v>990</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>607</v>
+        <v>991</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>608</v>
+        <v>992</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>609</v>
+        <v>993</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>610</v>
+        <v>994</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>611</v>
+        <v>995</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>612</v>
+        <v>996</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>613</v>
+        <v>997</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>614</v>
+        <v>998</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>615</v>
+        <v>999</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>616</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>617</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>608</v>
+        <v>992</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>618</v>
+        <v>1002</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>619</v>
+        <v>1003</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>621</v>
+        <v>1005</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
